--- a/biology/Histoire de la zoologie et de la botanique/John_Richardson_(naturaliste)/John_Richardson_(naturaliste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Richardson_(naturaliste)/John_Richardson_(naturaliste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Richardson est un naturaliste, un explorateur et un médecin écossais, né le 5 novembre 1787 à Dumfries en Écosse et mort le 5 juin 1865 à Grasmere dans le Westmorland.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de médecine à l’université d’Édimbourg et obtient un diplôme auprès de la renommée Royal College of Surgeons de Londres en 1807. Richardson sert, durant 48 ans, la Royal Navy comme médecin. Il navigue notamment, entre 1807 et 1814 en Espagne, au Canada, à Madère et en mer Baltique.
 De 1819 à 1822, il participe à la première expédition de Sir John Franklin (° 1786 - † 1847) sur les côtes arctiques canadiennes. Il participe à la seconde expédition de Sir Franklin, de 1824 à 1827, durant laquelle il parcourt près de 1 500 km. Au prix de terribles épreuves, il rapporte une très riche collection.
